--- a/KafkaReport.xlsx
+++ b/KafkaReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392BCC54-E3D4-4C35-BDA6-356533C6E567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE296838-5C8D-45AC-A60D-BBEECC3B61BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="141">
   <si>
     <t>App</t>
   </si>
@@ -55,352 +55,352 @@
     <t>IDC.PROD.SWIFT-FT.CUSTOMER.ORDERING.SWIFTORDERPROCESSING.JSON.CDO.EVENT</t>
   </si>
   <si>
+    <t>In Prod - Aug 2025</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>E.ServiceDelivery.EnterpriseOrchestration.Order.Command</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SWIFT-FT.SERVICEDELIVERY.ORDERWORKFLOW.ORDER.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>E.ServiceDelivery.EnterpriseOrchestration.SwiftOrderResponse.Command</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SWIFT-FT.SERVICEDELIVERY.ORDERWORKFLOW.SWIFTORDERRESPONSE.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>E.Customer.Ordering.SupportCase.Command</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SWIFT-FT.CUSTOMER.ORDERING.SUPPORTCASE.COMMAND.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>E.Workflow.Fulfillment.BPMS.Notes.Update.Command</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SWIFT-FT.SERVICEDELIVERY.WORKFLOW.FULFILLMENT.NOTES.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>E.Customer.Ordering.Swift.InFlightChange.Command</t>
+  </si>
+  <si>
+    <t>ODC.PROD.NAAS-UI-API.CUSTOMER.ORDERING.ORCHESTRATION.INFLIGHTCHANGE.COMMAND</t>
+  </si>
+  <si>
+    <t>In Prod - Dec 2025</t>
+  </si>
+  <si>
+    <t>E.Customer.Ordering.SwiftOrder.Command</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SWIFT-WORKFLOW.CUSTOMER.ORDERING.SWIFTORDER.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SEO.CUSTOMER.ORDERING.SWIFTORDER.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENT-ORDERING-WF.CUSTOMER.ORDERING.SWIFTORDER.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>In PROD -Dec2025</t>
+  </si>
+  <si>
+    <t>E.Customer.Support.Case.Event</t>
+  </si>
+  <si>
+    <t>DDC.PROD.SFAINT.CUSTOMER.SALES.CASE.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>E.ServiceDelivery.Workflow.Milestone.Event</t>
+  </si>
+  <si>
+    <t>AWS.PROD.SAO.SERVICEDELIVERY.WORKFLOW.MILESTONE.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>E.Customer.Quoting.ROC.Event</t>
+  </si>
+  <si>
+    <t>AWS.PROD.OFFNET-COSTING-FT.CUSTOMER.QUOTING.ROC.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>E.Customer.Ordering.Design.Event</t>
+  </si>
+  <si>
+    <t>DDC.PROD.NETWORK-DESIGNER.CUSTOMER.ORDERING.DESIGN.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>DDC.PROD.SFENT.CUSTOMER.ORDERING.DESIGN.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>E.Inventory.Location.ServiceLocation.Event</t>
+  </si>
+  <si>
+    <t>IDC.PROD.GLM.INVENTORY.LOCATION.SERVICELOCATION.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>E.Inventory.Location.SiteLocation.Event</t>
+  </si>
+  <si>
+    <t>IDC.PROD.GLM.INVENTORY.LOCATION.SITE.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>E.BillingAndRating.Billing.SeoComponent.Bill.Command</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SEO.SERVICEDELIVERY.WORKFLOW.ORDERCOMPLETE.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>E.ServiceDelivery.EnterpriseOrchestration.Component.Event</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SEO.SERVICEDELIVERY.WORKFLOW.MILESTONES.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>E.Customer.Ordering.SwiftProductPackageNotification.Command</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SEO.CUSTOMER.ORDERING.SWIFTPRODUCTPACKAGENOTIFICATION.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>E.ServiceDelivery.EnterpriseOrchestration.Order.Event</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SEO.SERVICEDELIVERY.WORKFLOW.ORDERTASK.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>E.Inventory.Ordering.ISM.Order.Command</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SEO.INVENTORY.ORDERING.ORDERUPDATE.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>E.Customer.Ordering.ProductPackage.Command</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SEO.CUSTOMER.ORDERING.PRODUCTPACKAGE.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>E.ServiceDelivery.EnterpriseOrchestration.Autopilot.Order.Command</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SEO.SERVICEDELIVERY.WORKFLOW.ORDERUPDATE.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>E.Enterprise.Ordering.OrderAutomation.Notification.Command</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SEO.CUSTOMER.ORDER.CREATE.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>E.BillingAndRating.Billing.SeoComponent.Event</t>
+  </si>
+  <si>
+    <t>AZR.PROD.BILLINGORDERHANDLER.BILLING.ORDER.SEOCOMPONENTRESPONSE.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>E.Customer.Ordering.SwiftOrder.Event</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SWIFT-WORKFLOW.SERVICEDELIVERY.WORKFLOW.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>E.Enterprise.OrderRouting.ProductPackageMilestone.Event</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENTR-TALEND.ENTERPRISE.ORDER.PRODUCTPACKAGEMILESTONE.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E.ServiceDelivery.EnterpriseOrchestration.SwiftOrderResponse.Command </t>
+  </si>
+  <si>
+    <t>E.ServiceDelivery.EnterpriseOrchestration.JobActivity.Event</t>
+  </si>
+  <si>
+    <t>ODC.PROD.AUTOPILOT.SERVICEDELIVERY.WORKFLOW.AUTOPILOTJOB.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>E.Enterprise.OrderRouting.ProductPackage.Event</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENTR-TALEND.CUSTOMER.WORKFLOW.PRODUCTPACKAGE.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>E.Customer.Ordering.DigitalDialogueVerification.Event</t>
+  </si>
+  <si>
+    <t>ODC.PROD.ASRI.ENTERPRISE.WORKFLOW.DESIGNMILESTONE.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENT-ORDERING-WF.SERVICEDELIVERY.ORDER.ORDERFORWARDED.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>In PROD -Feb2026</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENTR-TALEND.CUSTOMER.ORDERING.SMORDERPROCESSOR.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENTR-TALEND.CUSTOMER.ORDERING.ORDERPROCESSOR.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>ODC.PROD.NAAS-UI-API.CUSTOMER.ORDERING.ORCHESTRATION.ORDER.COMMAND</t>
+  </si>
+  <si>
+    <t>Waiting for Producer to go to prod, testing is completed</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SWIFT-WORKFLOW.CUSTOMER.ORDERING.SWIFTORDER.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>In PROD- Dec 2025</t>
+  </si>
+  <si>
+    <t>CPO still waiting for TOPIC and sample message</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>E.BillingAndRating.Billing.CPOOrder.Event</t>
+  </si>
+  <si>
+    <t>AZR.PROD.BILLINGORDERHANDLER.BILLING.ORDER.CPOORDERRESPONSE.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>Ready to go to Prod</t>
+  </si>
+  <si>
+    <t>E.Customer.Ordering.CPOOrder.Event</t>
+  </si>
+  <si>
+    <t>DDC.PROD.CPO.CUSTOMER.ORDERING.CPOORDER.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>No single message published in any test env</t>
+  </si>
+  <si>
+    <t>ODC.PROD.AUTOPILOT.SERVICEDELIVERY.WORKFLOW.AUTOPILOTMILESTONE.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>testing is pending 2-13</t>
+  </si>
+  <si>
+    <t>testing is pending</t>
+  </si>
+  <si>
+    <t>Logic App needs to give Sample message and Topic</t>
+  </si>
+  <si>
+    <t>E.ServiceDelivery.EnterpriseOrchestration.ComponentStatus.Command</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SWIFT-WORKFLOW.SERVICEDELIVERY.WORKFLOW.COMPONENTSTATUS.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>ODC.PROD.INV-SRVCS-MEDIATION.CUSTOMER.ORDER.COMPONENTSTATUS.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>ODC.PROD.ASRI.ENTERPRISE.WORKFLOW.COMPONENTSTATUS.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>SWF</t>
+  </si>
+  <si>
+    <t>In PROD -Sep 2025</t>
+  </si>
+  <si>
+    <t>E.Customer.Ordering.SwiftOrderTask.Event</t>
+  </si>
+  <si>
+    <t>IDC.PROD.SWIFT-WORKFLOW.CUSTOMER.ORDERING.SWIFTORDERTASK.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>E.Finance.CustomerRisk.Order.Event</t>
+  </si>
+  <si>
+    <t>DDC.PROD.GLOBAL-CREDIT-AUTH.FINANCE.CUSTOMERRISK.ORDER.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>In PROD - Feb 2026</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENT-ORDERING-WF.SERVICEDELIVERY.WORKFLOW.ORDERTASK.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>In PROD - Jan 2026</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENT-ORDERING-WF.CUSTOMER.ORDERING.PRODUCTPACKAGE.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>No single message published in any test env --checking with Dev</t>
+  </si>
+  <si>
+    <t>E.Inventory.Location.NetworkNode.Event</t>
+  </si>
+  <si>
+    <t>EOW</t>
+  </si>
+  <si>
+    <t>E.BillingAndRating.Rating.UP.Order.Command</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENT-ORDERING-WF.BILLING.USAGE.READYSTATUS.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>In PROD- Sept 2025</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENT-ORDERING-WF.CUSTOMER.ORDER.CREATE.JSON.SPECIFIC.EVENT</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENT-ORDERING-WF.SERVICEDELIVERY.WORKFLOW.ORDERUPDATE.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENT-ORDERING-WF.INVENTORY.ORDERING.ORDERUPDATE.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENT-ORDERING-WF.CUSTOMER.ORDERING.SWIFTPRODUCTPACKAGENOTIFICATION.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENT-ORDERING-WF.SERVICEDELIVERY.WORKFLOW.MILESTONES.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t>DDC.PROD.ENT-ORDERING-WF.SERVICEDELIVERY.WORKFLOW.ORDERCOMPLETE.JSON.CDO.EVENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumer </t>
+  </si>
+  <si>
+    <t>E.ServiceDelivery.EnterpriseOrchestration.Order.Command.T</t>
+  </si>
+  <si>
+    <t>ODC.PROD.INV-SRVCS-MEDIATION.SERVICEDELIVERY.ORDER.FASTRORDER.JSON.CDO.EVENT</t>
+  </si>
+  <si>
     <t>R4 topic is in pending stage in testing</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>E.ServiceDelivery.EnterpriseOrchestration.Order.Command</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SWIFT-FT.SERVICEDELIVERY.ORDERWORKFLOW.ORDER.JSON.CDO.EVENT</t>
-  </si>
-  <si>
     <t xml:space="preserve">CPO is not ready </t>
-  </si>
-  <si>
-    <t>E.ServiceDelivery.EnterpriseOrchestration.SwiftOrderResponse.Command</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SWIFT-FT.SERVICEDELIVERY.ORDERWORKFLOW.SWIFTORDERRESPONSE.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>Logic APP Not yet ready in Test</t>
-  </si>
-  <si>
-    <t>E.Customer.Ordering.SupportCase.Command</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SWIFT-FT.CUSTOMER.ORDERING.SUPPORTCASE.COMMAND.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>Not yet Redy</t>
-  </si>
-  <si>
-    <t>E.Workflow.Fulfillment.BPMS.Notes.Update.Command</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SWIFT-FT.SERVICEDELIVERY.WORKFLOW.FULFILLMENT.NOTES.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>testing is pending</t>
-  </si>
-  <si>
-    <t>Consumer</t>
-  </si>
-  <si>
-    <t>E.Customer.Ordering.Swift.InFlightChange.Command</t>
-  </si>
-  <si>
-    <t>ODC.PROD.NAAS-UI-API.CUSTOMER.ORDERING.ORCHESTRATION.INFLIGHTCHANGE.COMMAND</t>
-  </si>
-  <si>
-    <t>E.Customer.Ordering.SwiftOrder.Command</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SWIFT-WORKFLOW.CUSTOMER.ORDERING.SWIFTORDER.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>Logic App needs to give Sample message and Topic</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SEO.CUSTOMER.ORDERING.SWIFTORDER.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>Ready to go to Prod</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENT-ORDERING-WF.CUSTOMER.ORDERING.SWIFTORDER.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>E.Customer.Support.Case.Event</t>
-  </si>
-  <si>
-    <t>DDC.PROD.SFAINT.CUSTOMER.SALES.CASE.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>E.ServiceDelivery.Workflow.Milestone.Event</t>
-  </si>
-  <si>
-    <t>AWS.PROD.SAO.SERVICEDELIVERY.WORKFLOW.MILESTONE.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>E.Customer.Quoting.ROC.Event</t>
-  </si>
-  <si>
-    <t>AWS.PROD.OFFNET-COSTING-FT.CUSTOMER.QUOTING.ROC.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>In Prod - Dec 2025</t>
-  </si>
-  <si>
-    <t>E.Customer.Ordering.Design.Event</t>
-  </si>
-  <si>
-    <t>DDC.PROD.NETWORK-DESIGNER.CUSTOMER.ORDERING.DESIGN.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>DDC.PROD.SFENT.CUSTOMER.ORDERING.DESIGN.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>E.Inventory.Location.ServiceLocation.Event</t>
-  </si>
-  <si>
-    <t>IDC.PROD.GLM.INVENTORY.LOCATION.SERVICELOCATION.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>E.Inventory.Location.SiteLocation.Event</t>
-  </si>
-  <si>
-    <t>IDC.PROD.GLM.INVENTORY.LOCATION.SITE.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>SEO</t>
-  </si>
-  <si>
-    <t>E.BillingAndRating.Billing.SeoComponent.Bill.Command</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SEO.SERVICEDELIVERY.WORKFLOW.ORDERCOMPLETE.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>In Prod - Aug 2025</t>
-  </si>
-  <si>
-    <t>E.ServiceDelivery.EnterpriseOrchestration.Component.Event</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SEO.SERVICEDELIVERY.WORKFLOW.MILESTONES.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>E.Customer.Ordering.SwiftProductPackageNotification.Command</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SEO.CUSTOMER.ORDERING.SWIFTPRODUCTPACKAGENOTIFICATION.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>E.ServiceDelivery.EnterpriseOrchestration.Order.Event</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SEO.SERVICEDELIVERY.WORKFLOW.ORDERTASK.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>E.Inventory.Ordering.ISM.Order.Command</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SEO.INVENTORY.ORDERING.ORDERUPDATE.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>E.Customer.Ordering.ProductPackage.Command</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SEO.CUSTOMER.ORDERING.PRODUCTPACKAGE.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>E.ServiceDelivery.EnterpriseOrchestration.Autopilot.Order.Command</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SEO.SERVICEDELIVERY.WORKFLOW.ORDERUPDATE.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>E.Enterprise.Ordering.OrderAutomation.Notification.Command</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SEO.CUSTOMER.ORDER.CREATE.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>E.BillingAndRating.Billing.SeoComponent.Event</t>
-  </si>
-  <si>
-    <t>AZR.PROD.BILLINGORDERHANDLER.BILLING.ORDER.SEOCOMPONENTRESPONSE.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>In PROD -Dec2025</t>
-  </si>
-  <si>
-    <t>E.Customer.Ordering.SwiftOrder.Event</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SWIFT-WORKFLOW.SERVICEDELIVERY.WORKFLOW.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>E.Enterprise.OrderRouting.ProductPackageMilestone.Event</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENTR-TALEND.ENTERPRISE.ORDER.PRODUCTPACKAGEMILESTONE.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E.ServiceDelivery.EnterpriseOrchestration.SwiftOrderResponse.Command </t>
-  </si>
-  <si>
-    <t>E.ServiceDelivery.EnterpriseOrchestration.JobActivity.Event</t>
-  </si>
-  <si>
-    <t>ODC.PROD.AUTOPILOT.SERVICEDELIVERY.WORKFLOW.AUTOPILOTJOB.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>E.Enterprise.OrderRouting.ProductPackage.Event</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENTR-TALEND.CUSTOMER.WORKFLOW.PRODUCTPACKAGE.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>E.Customer.Ordering.DigitalDialogueVerification.Event</t>
-  </si>
-  <si>
-    <t>ODC.PROD.ASRI.ENTERPRISE.WORKFLOW.DESIGNMILESTONE.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENT-ORDERING-WF.SERVICEDELIVERY.ORDER.ORDERFORWARDED.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>In PROD -Feb2026</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENTR-TALEND.CUSTOMER.ORDERING.SMORDERPROCESSOR.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENTR-TALEND.CUSTOMER.ORDERING.ORDERPROCESSOR.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>ODC.PROD.NAAS-UI-API.CUSTOMER.ORDERING.ORCHESTRATION.ORDER.COMMAND</t>
-  </si>
-  <si>
-    <t>Waiting for Producer to go to prod, testing is completed</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SWIFT-WORKFLOW.CUSTOMER.ORDERING.SWIFTORDER.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>In PROD- Dec 2025</t>
-  </si>
-  <si>
-    <t>CPO still waiting for TOPIC and sample message</t>
-  </si>
-  <si>
-    <t>E.BillingAndRating.Billing.CPOOrder.Event</t>
-  </si>
-  <si>
-    <t>AZR.PROD.BILLINGORDERHANDLER.BILLING.ORDER.CPOORDERRESPONSE.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>E.Customer.Ordering.CPOOrder.Event</t>
-  </si>
-  <si>
-    <t>DDC.&lt;env&gt;.CPO.CUSTOMER.ORDERING.CPOORDER.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>No single message published in any test env</t>
-  </si>
-  <si>
-    <t>ODC.PROD.AUTOPILOT.SERVICEDELIVERY.WORKFLOW.AUTOPILOTMILESTONE.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>E.ServiceDelivery.EnterpriseOrchestration.ComponentStatus.Command</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SWIFT-WORKFLOW.SERVICEDELIVERY.WORKFLOW.COMPONENTSTATUS.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>ODC.PROD.INV-SRVCS-MEDIATION.CUSTOMER.ORDER.COMPONENTSTATUS.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>ODC.PROD.ASRI.ENTERPRISE.WORKFLOW.COMPONENTSTATUS.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>SWF</t>
-  </si>
-  <si>
-    <t>In PROD -Sep 2025</t>
-  </si>
-  <si>
-    <t>E.Customer.Ordering.SwiftOrderTask.Event</t>
-  </si>
-  <si>
-    <t>IDC.PROD.SWIFT-WORKFLOW.CUSTOMER.ORDERING.SWIFTORDERTASK.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>E.Finance.CustomerRisk.Order.Event</t>
-  </si>
-  <si>
-    <t>DDC.PROD.GLOBAL-CREDIT-AUTH.FINANCE.CUSTOMERRISK.ORDER.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>In PROD - Feb 2026</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENT-ORDERING-WF.SERVICEDELIVERY.WORKFLOW.ORDERTASK.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>In PROD - Jan 2026</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENT-ORDERING-WF.CUSTOMER.ORDERING.PRODUCTPACKAGE.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>No single message published in any test env --checking with Dev</t>
-  </si>
-  <si>
-    <t>E.Inventory.Location.NetworkNode.Event</t>
-  </si>
-  <si>
-    <t>EOW</t>
-  </si>
-  <si>
-    <t>E.BillingAndRating.Rating.UP.Order.Command</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENT-ORDERING-WF.BILLING.USAGE.READYSTATUS.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>In PROD- Sept 2025</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENT-ORDERING-WF.CUSTOMER.ORDER.CREATE.JSON.SPECIFIC.EVENT</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENT-ORDERING-WF.SERVICEDELIVERY.WORKFLOW.ORDERUPDATE.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENT-ORDERING-WF.INVENTORY.ORDERING.ORDERUPDATE.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENT-ORDERING-WF.CUSTOMER.ORDERING.SWIFTPRODUCTPACKAGENOTIFICATION.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENT-ORDERING-WF.SERVICEDELIVERY.WORKFLOW.MILESTONES.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t>DDC.PROD.ENT-ORDERING-WF.SERVICEDELIVERY.WORKFLOW.ORDERCOMPLETE.JSON.CDO.EVENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consumer </t>
-  </si>
-  <si>
-    <t>E.ServiceDelivery.EnterpriseOrchestration.Order.Command.T</t>
-  </si>
-  <si>
-    <t>ODC.PROD.INV-SRVCS-MEDIATION.SERVICEDELIVERY.ORDER.FASTRORDER.JSON.CDO.EVENT</t>
   </si>
   <si>
     <t xml:space="preserve">E.ServiceDelivery.Workflow.Milestone.Event.T
 </t>
   </si>
   <si>
+    <t>Logic APP Not yet ready in Test</t>
+  </si>
+  <si>
     <t>E.Customer.Ordering.SwiftOrderProcessing.Event.T</t>
   </si>
   <si>
@@ -417,6 +417,12 @@
   </si>
   <si>
     <t>E.Customer.Ordering.CPOOrder.Event.T</t>
+  </si>
+  <si>
+    <t>Not yet Redy.</t>
+  </si>
+  <si>
+    <t>Not yet Redy</t>
   </si>
   <si>
     <t>E.Customer.Ordering.SwiftOrder.Event.T</t>
@@ -436,13 +442,16 @@
   </si>
   <si>
     <t>E.Enterprise.OrderRouting.ProductPackageMilestone.Event.T</t>
+  </si>
+  <si>
+    <t>VDW.CUSTOMER.ORDERING.ENTERPRISEORCHESTRATION.COMPONENTSTATUS.JSON.COMMAND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +463,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -491,11 +506,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,21 +814,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="96.28515625" customWidth="1"/>
-    <col min="5" max="5" width="48.140625" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="84.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -835,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -849,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -858,7 +871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -872,7 +885,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -881,7 +894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -889,13 +902,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -904,7 +917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -912,13 +925,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -927,7 +940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -935,13 +948,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -950,21 +963,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -973,21 +986,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -996,21 +1009,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -1019,21 +1032,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1042,21 +1055,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1065,21 +1078,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1088,21 +1101,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1111,21 +1124,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -1134,21 +1147,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -1157,21 +1170,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1180,21 +1193,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -1203,21 +1216,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1226,21 +1239,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -1249,21 +1262,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>3</v>
@@ -1272,21 +1285,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -1295,21 +1308,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -1318,21 +1331,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -1341,21 +1354,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F24">
         <v>7</v>
@@ -1364,21 +1377,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F25">
         <v>8</v>
@@ -1387,21 +1400,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <v>9</v>
@@ -1410,21 +1423,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -1433,21 +1446,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F28">
         <v>11</v>
@@ -1456,21 +1469,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F29">
         <v>12</v>
@@ -1479,21 +1492,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F30">
         <v>13</v>
@@ -1502,21 +1515,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F31">
         <v>14</v>
@@ -1525,21 +1538,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F32">
         <v>15</v>
@@ -1548,21 +1561,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F33">
         <v>16</v>
@@ -1571,21 +1584,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F34">
         <v>17</v>
@@ -1594,21 +1607,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F35">
         <v>18</v>
@@ -1617,21 +1630,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F36">
         <v>19</v>
@@ -1640,12 +1653,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -1654,7 +1667,7 @@
         <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F37">
         <v>20</v>
@@ -1663,44 +1676,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F38">
         <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E39" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F39">
         <v>22</v>
@@ -1709,239 +1722,239 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F40">
         <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F41">
         <v>24</v>
       </c>
       <c r="G41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" t="s">
-        <v>92</v>
-      </c>
       <c r="D42" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F42">
         <v>25</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="F43">
         <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="F44">
         <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F45">
         <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F46">
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F47">
         <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
         <v>96</v>
       </c>
-      <c r="D48" t="s">
-        <v>99</v>
-      </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="F48">
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F49">
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -1950,10 +1963,10 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1962,21 +1975,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -1985,21 +1998,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -2008,21 +2021,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -2031,21 +2044,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" t="s">
         <v>100</v>
       </c>
-      <c r="B54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" t="s">
-        <v>102</v>
-      </c>
-      <c r="D54" t="s">
-        <v>103</v>
-      </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F54">
         <v>5</v>
@@ -2054,21 +2067,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F55">
         <v>6</v>
@@ -2077,21 +2090,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F56">
         <v>7</v>
@@ -2100,21 +2113,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F57">
         <v>8</v>
@@ -2123,21 +2136,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F58">
         <v>9</v>
@@ -2146,12 +2159,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -2160,7 +2173,7 @@
         <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F59">
         <v>10</v>
@@ -2169,21 +2182,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F60">
         <v>11</v>
@@ -2192,21 +2205,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F61">
         <v>12</v>
@@ -2215,136 +2228,136 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E62" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F62">
         <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E63" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F63">
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="F64">
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E65" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="F65">
         <v>16</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E66" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="F66">
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
+        <v>111</v>
+      </c>
+      <c r="E67" t="s">
         <v>112</v>
-      </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>113</v>
-      </c>
-      <c r="D67" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" t="s">
-        <v>115</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2353,21 +2366,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" t="s">
         <v>112</v>
-      </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" t="s">
-        <v>115</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -2376,21 +2389,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" t="s">
+        <v>113</v>
+      </c>
+      <c r="E69" t="s">
         <v>112</v>
-      </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>64</v>
-      </c>
-      <c r="D69" t="s">
-        <v>116</v>
-      </c>
-      <c r="E69" t="s">
-        <v>115</v>
       </c>
       <c r="F69">
         <v>3</v>
@@ -2399,21 +2412,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" t="s">
+        <v>114</v>
+      </c>
+      <c r="E70" t="s">
         <v>112</v>
-      </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" t="s">
-        <v>115</v>
       </c>
       <c r="F70">
         <v>4</v>
@@ -2422,21 +2435,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" t="s">
         <v>112</v>
-      </c>
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
-        <v>60</v>
-      </c>
-      <c r="D71" t="s">
-        <v>109</v>
-      </c>
-      <c r="E71" t="s">
-        <v>115</v>
       </c>
       <c r="F71">
         <v>5</v>
@@ -2445,21 +2458,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" t="s">
         <v>112</v>
-      </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" t="s">
-        <v>118</v>
-      </c>
-      <c r="E72" t="s">
-        <v>115</v>
       </c>
       <c r="F72">
         <v>6</v>
@@ -2468,21 +2481,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" t="s">
         <v>112</v>
-      </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>56</v>
-      </c>
-      <c r="D73" t="s">
-        <v>107</v>
-      </c>
-      <c r="E73" t="s">
-        <v>115</v>
       </c>
       <c r="F73">
         <v>7</v>
@@ -2491,9 +2504,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -2502,10 +2515,10 @@
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F74">
         <v>8</v>
@@ -2514,21 +2527,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" t="s">
+        <v>116</v>
+      </c>
+      <c r="E75" t="s">
         <v>112</v>
-      </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
-        <v>54</v>
-      </c>
-      <c r="D75" t="s">
-        <v>119</v>
-      </c>
-      <c r="E75" t="s">
-        <v>115</v>
       </c>
       <c r="F75">
         <v>9</v>
@@ -2537,21 +2550,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" t="s">
+        <v>117</v>
+      </c>
+      <c r="E76" t="s">
         <v>112</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" t="s">
-        <v>120</v>
-      </c>
-      <c r="E76" t="s">
-        <v>115</v>
       </c>
       <c r="F76">
         <v>10</v>
@@ -2560,21 +2573,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" t="s">
+        <v>118</v>
+      </c>
+      <c r="E77" t="s">
         <v>112</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" t="s">
-        <v>121</v>
-      </c>
-      <c r="E77" t="s">
-        <v>115</v>
       </c>
       <c r="F77">
         <v>11</v>
@@ -2583,21 +2596,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E78" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F78">
         <v>12</v>
@@ -2606,21 +2619,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C79" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E79" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F79">
         <v>13</v>
@@ -2629,21 +2642,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E80" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F80">
         <v>14</v>
@@ -2652,21 +2665,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C81" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D81" t="s">
         <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F81">
         <v>15</v>
@@ -2675,67 +2688,67 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" t="s">
         <v>122</v>
       </c>
-      <c r="C82" t="s">
-        <v>123</v>
-      </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="F82">
         <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" t="s">
         <v>123</v>
       </c>
-      <c r="D83" t="s">
-        <v>15</v>
-      </c>
       <c r="E83" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F83">
         <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D84" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E84" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F84">
         <v>18</v>
@@ -2744,21 +2757,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D85" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E85" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F85">
         <v>19</v>
@@ -2767,35 +2780,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C86" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" t="s">
         <v>125</v>
       </c>
-      <c r="D86" t="s">
-        <v>18</v>
-      </c>
       <c r="E86" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="F86">
         <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C87" t="s">
         <v>126</v>
@@ -2813,18 +2826,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C88" t="s">
         <v>128</v>
       </c>
       <c r="D88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E88" t="s">
         <v>127</v>
@@ -2836,18 +2849,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C89" t="s">
         <v>129</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E89" t="s">
         <v>127</v>
@@ -2859,21 +2872,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C90" t="s">
         <v>130</v>
       </c>
       <c r="D90" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E90" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F90">
         <v>24</v>
@@ -2882,44 +2895,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
         <v>131</v>
       </c>
       <c r="D91" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="E91" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="F91">
         <v>25</v>
       </c>
       <c r="G91" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D92" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E92" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F92">
         <v>26</v>
@@ -2928,21 +2941,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C93" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D93" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E93" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F93">
         <v>27</v>
@@ -2951,21 +2964,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C94" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D94" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F94">
         <v>28</v>
@@ -2974,21 +2987,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D95" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E95" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F95">
         <v>29</v>
@@ -2997,21 +3010,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C96" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D96" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E96" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F96">
         <v>30</v>
@@ -3020,18 +3033,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C97" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D97" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E97" t="s">
         <v>127</v>
@@ -3041,6 +3054,26 @@
       </c>
       <c r="G97" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F98">
+        <v>32</v>
+      </c>
+      <c r="G98" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/KafkaReport.xlsx
+++ b/KafkaReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\pythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE296838-5C8D-45AC-A60D-BBEECC3B61BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDEE6069-CB3D-49DD-B696-4E2D0315C718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="141">
   <si>
     <t>App</t>
   </si>
@@ -817,7 +817,7 @@
   <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3069,6 +3069,9 @@
       <c r="D98" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="E98" t="s">
+        <v>78</v>
+      </c>
       <c r="F98">
         <v>32</v>
       </c>
